--- a/data/trans_dic/CoTrAQ_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/CoTrAQ_R-Dificultad-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5546134223474622</v>
+        <v>0.5484223366172077</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3657700275296275</v>
+        <v>0.3817660383948436</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4944832143652478</v>
+        <v>0.4972923299232204</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3500160949478344</v>
+        <v>0.354288047138427</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5475105474728815</v>
+        <v>0.5431000454754261</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3792191725777804</v>
+        <v>0.3818776381840531</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6771352524195364</v>
+        <v>0.6721092579247498</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4945874603420288</v>
+        <v>0.4950596847500718</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6331485036112946</v>
+        <v>0.6416463170360077</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4671927286379715</v>
+        <v>0.4676844659044139</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6344933024925884</v>
+        <v>0.6373381035924335</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4630367645982315</v>
+        <v>0.4646736317906184</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6402674364793174</v>
+        <v>0.6409339331194163</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4346431735202516</v>
+        <v>0.4330977939384992</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5150720934866649</v>
+        <v>0.5195626963848169</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4261769379706192</v>
+        <v>0.4263322495637401</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6070697764823862</v>
+        <v>0.6140067328776309</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4446597925049969</v>
+        <v>0.4456992265610931</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7396489751949341</v>
+        <v>0.741285687715968</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5327966679964421</v>
+        <v>0.5339047626876517</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6506285822277394</v>
+        <v>0.6524394869058531</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5452935959892823</v>
+        <v>0.5473960924623019</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6863737042163874</v>
+        <v>0.6909175252024047</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5234568165878698</v>
+        <v>0.5237607764664491</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6938033469296775</v>
+        <v>0.6901665888778008</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5577781258489397</v>
+        <v>0.5578880276909364</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6714108089629937</v>
+        <v>0.6679071176760289</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.470994806063759</v>
+        <v>0.4801554267741609</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6979949684541777</v>
+        <v>0.6957958290825862</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5386462435746303</v>
+        <v>0.5400548168609293</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7815171964379258</v>
+        <v>0.7742867009353556</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6519242696029087</v>
+        <v>0.6470267793311849</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7838119277169096</v>
+        <v>0.7797107444103971</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5927594254683555</v>
+        <v>0.5977518684911857</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.765638360413928</v>
+        <v>0.7698378137210254</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6136982934720446</v>
+        <v>0.6125870117553391</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7344915256148676</v>
+        <v>0.7378111043816566</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5887629556622863</v>
+        <v>0.5854025190377263</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6613428406132403</v>
+        <v>0.6535570750593198</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5143017968385023</v>
+        <v>0.514253701725333</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7233955159930548</v>
+        <v>0.7236697346067924</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.574902759658565</v>
+        <v>0.5796485644587748</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8365764024186745</v>
+        <v>0.8380931463728318</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7070247588414316</v>
+        <v>0.7062443680647912</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7979457291061136</v>
+        <v>0.7998203945726707</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6624928229381726</v>
+        <v>0.658954725120143</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8087842026963251</v>
+        <v>0.8071505009129446</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6715876607405187</v>
+        <v>0.6665263084348065</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6836832174107351</v>
+        <v>0.6851323812358691</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5173596324798546</v>
+        <v>0.5137504163054384</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.62085721598238</v>
+        <v>0.620705683077413</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4660970683113707</v>
+        <v>0.4678504071012143</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6656857933474187</v>
+        <v>0.6644121854634324</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5053769296799143</v>
+        <v>0.5046378945809717</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7348468487271171</v>
+        <v>0.7337676185540106</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5719204735359704</v>
+        <v>0.5690645182801477</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6858568570254209</v>
+        <v>0.6836481164877974</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5274416857564889</v>
+        <v>0.5308504896066265</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7072847948941038</v>
+        <v>0.7069608962565678</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5441958461600352</v>
+        <v>0.5439453366760414</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>150294</v>
+        <v>148616</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>107382</v>
+        <v>112078</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>105916</v>
+        <v>106518</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>97035</v>
+        <v>98220</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>265643</v>
+        <v>263503</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>216462</v>
+        <v>217979</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>183496</v>
+        <v>182134</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>145200</v>
+        <v>145339</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>135617</v>
+        <v>137437</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>129520</v>
+        <v>129657</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>307845</v>
+        <v>309226</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>264306</v>
+        <v>265240</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>238329</v>
+        <v>238577</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>169717</v>
+        <v>169113</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>124728</v>
+        <v>125815</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>115090</v>
+        <v>115132</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>372978</v>
+        <v>377240</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>293710</v>
+        <v>294396</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>275322</v>
+        <v>275932</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>208043</v>
+        <v>208476</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>157554</v>
+        <v>157992</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>147258</v>
+        <v>147826</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>421701</v>
+        <v>424493</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>345757</v>
+        <v>345958</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>305176</v>
+        <v>303576</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>254452</v>
+        <v>254502</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>179614</v>
+        <v>178677</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>136888</v>
+        <v>139550</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>493745</v>
+        <v>492189</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>402274</v>
+        <v>403326</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>343757</v>
+        <v>340577</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>297400</v>
+        <v>295166</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>209683</v>
+        <v>208586</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>172277</v>
+        <v>173728</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>541594</v>
+        <v>544565</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>458325</v>
+        <v>457495</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>211940</v>
+        <v>212898</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>161998</v>
+        <v>161073</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>116345</v>
+        <v>114976</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>99807</v>
+        <v>99798</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>336001</v>
+        <v>336129</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>269751</v>
+        <v>271978</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>241397</v>
+        <v>241835</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>194537</v>
+        <v>194322</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>140377</v>
+        <v>140707</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>128565</v>
+        <v>127879</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>375662</v>
+        <v>374904</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>315117</v>
+        <v>312742</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>937764</v>
+        <v>939752</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>732266</v>
+        <v>727157</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>558642</v>
+        <v>558505</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>481004</v>
+        <v>482813</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1512056</v>
+        <v>1509163</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1236845</v>
+        <v>1235037</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1007942</v>
+        <v>1006461</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>809491</v>
+        <v>805448</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>617128</v>
+        <v>615140</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>544310</v>
+        <v>547828</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1606545</v>
+        <v>1605809</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1331850</v>
+        <v>1331237</v>
       </c>
     </row>
     <row r="24">
